--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t xml:space="preserve">Начислены пени за 41 к.д. </t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №193</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,32 +129,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -186,18 +163,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +488,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,9 +503,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,7 +520,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>10637.7</v>
@@ -551,7 +532,7 @@
         <v>43437</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -563,7 +544,7 @@
         <v>43437</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>648.9</v>
@@ -575,7 +556,7 @@
         <v>43437</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -587,7 +568,7 @@
         <v>43586</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>9832.35</v>
@@ -599,7 +580,7 @@
         <v>43780</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6">
@@ -611,7 +592,7 @@
         <v>43780</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9">
         <f>PRODUCT(D8,41,0.001)</f>
@@ -632,9 +613,6 @@
       <c r="D11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -73,7 +73,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -144,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -161,23 +160,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -528,7 +528,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>43437</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -540,7 +540,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>43437</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -552,7 +552,7 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43437</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -564,7 +564,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>43586</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -576,7 +576,7 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>43780</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -588,23 +588,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>43780</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="15">
         <f>PRODUCT(D8,41,0.001)</f>
         <v>403.12635000000006</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="12">
+        <v>43977</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>403.13</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>

--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №193</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,9 +616,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11062.5</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -95,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,11 +142,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -181,6 +205,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,10 +517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,6 +655,18 @@
         <v>11062.5</v>
       </c>
       <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>44146</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7">
+        <v>11062.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="A13" sqref="A13:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,6 +670,54 @@
       <c r="D12" s="7">
         <v>11062.5</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11797.05</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D19"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,10 +684,16 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="12">
+        <v>44494</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>11797.05</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>

--- a/sputnik/personal/uch/uch193.xlsx
+++ b/sputnik/personal/uch/uch193.xlsx
@@ -79,6 +79,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -173,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,16 +204,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -523,7 +534,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="A9" sqref="A9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,26 +586,26 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="16">
         <v>43437</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="18">
         <v>648.9</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="16">
         <v>43437</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
         <v>648.9</v>
       </c>
     </row>
@@ -623,27 +634,27 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="19">
         <v>43780</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="21">
         <f>PRODUCT(D8,41,0.001)</f>
         <v>403.12635000000006</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="22">
         <v>43977</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20">
         <v>403.13</v>
       </c>
     </row>
@@ -660,13 +671,13 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>44146</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7">
         <v>11062.5</v>
       </c>
@@ -687,7 +698,7 @@
       <c r="A14" s="12">
         <v>44494</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="7"/>
